--- a/REGULAR/OJT/CACAO, ANDREA F..xlsx
+++ b/REGULAR/OJT/CACAO, ANDREA F..xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="85">
   <si>
     <t>PERIOD</t>
   </si>
@@ -3072,7 +3072,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A98" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="K114" sqref="K114"/>
+      <selection pane="bottomLeft" activeCell="F116" sqref="F116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3237,7 +3237,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>60.75</v>
+        <v>64.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3247,7 +3247,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>88.75</v>
+        <v>93.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5552,13 +5552,15 @@
       <c r="B114" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C114" s="13"/>
+      <c r="C114" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D114" s="39"/>
       <c r="E114" s="9"/>
       <c r="F114" s="20"/>
-      <c r="G114" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G114" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H114" s="39">
         <v>1</v>
@@ -5574,13 +5576,15 @@
         <v>45170</v>
       </c>
       <c r="B115" s="20"/>
-      <c r="C115" s="13"/>
+      <c r="C115" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D115" s="39"/>
       <c r="E115" s="9"/>
       <c r="F115" s="20"/>
-      <c r="G115" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G115" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H115" s="39"/>
       <c r="I115" s="9"/>
@@ -5591,37 +5595,51 @@
       <c r="A116" s="40">
         <v>45200</v>
       </c>
-      <c r="B116" s="20"/>
-      <c r="C116" s="13"/>
-      <c r="D116" s="39"/>
+      <c r="B116" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C116" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D116" s="39">
+        <v>1</v>
+      </c>
       <c r="E116" s="9"/>
       <c r="F116" s="20"/>
-      <c r="G116" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G116" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H116" s="39"/>
       <c r="I116" s="9"/>
       <c r="J116" s="11"/>
-      <c r="K116" s="20"/>
+      <c r="K116" s="49">
+        <v>45212</v>
+      </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>45231</v>
       </c>
-      <c r="B117" s="20"/>
-      <c r="C117" s="13"/>
+      <c r="B117" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C117" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D117" s="39"/>
       <c r="E117" s="9"/>
       <c r="F117" s="20"/>
-      <c r="G117" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G117" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H117" s="39"/>
       <c r="I117" s="9"/>
       <c r="J117" s="11"/>
-      <c r="K117" s="20"/>
+      <c r="K117" s="49">
+        <v>45266</v>
+      </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
